--- a/stm-unity/Assets/Resources/Questionnaire/Sports Team Manager Questionnaire Localization.xlsx
+++ b/stm-unity/Assets/Resources/Questionnaire/Sports Team Manager Questionnaire Localization.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="184">
   <si>
     <t>Key</t>
   </si>
@@ -53,7 +53,7 @@
     <t>QUESTION_2_B</t>
   </si>
   <si>
-    <t>I attempt to deal with all of his and my concerns.</t>
+    <t>I attempt to deal with all of their and my concerns.</t>
   </si>
   <si>
     <t>Cerco di tener conto dei miei e dei suoi interessi.</t>
@@ -206,7 +206,7 @@
     <t>QUESTION_12_B</t>
   </si>
   <si>
-    <t>I will let him have some of his positions if he lets me have some of mine.</t>
+    <t>I will let others have some of their positions if they lets me have some of mine.</t>
   </si>
   <si>
     <t>Concedo qualcosa all'altro se l'altro fa altrettanto.</t>
@@ -233,7 +233,7 @@
     <t>QUESTION_14_A</t>
   </si>
   <si>
-    <t>I tell him my ideas and ask him for his.</t>
+    <t>I tell them my ideas and ask them for theirs.</t>
   </si>
   <si>
     <t>Dico all'altro le mie idee e gli chiedo di espormi le sue.</t>
@@ -242,7 +242,7 @@
     <t>QUESTION_14_B</t>
   </si>
   <si>
-    <t>I try to show him the logic and benefits of my position.</t>
+    <t>I try to show them the logic and benefits of my position.</t>
   </si>
   <si>
     <t>Cerco di mostrare all'altro la logica e i vantaggi del mio punto di vista.</t>
@@ -290,7 +290,7 @@
     <t>QUESTION_18_A</t>
   </si>
   <si>
-    <t>If it makes the other person happy, I might let him maintain his views.</t>
+    <t>If it makes the other person happy, I might let them maintain their views.</t>
   </si>
   <si>
     <t>Lascio che gli altri mantengano la loro opinione se questo li fa contenti.</t>
@@ -299,6 +299,9 @@
     <t>QUESTION_18_B</t>
   </si>
   <si>
+    <t>I will let them have some of their positions if they lets me have some of mine.</t>
+  </si>
+  <si>
     <t>QUESTION_19_A</t>
   </si>
   <si>
@@ -347,7 +350,7 @@
     <t>QUESTION_22_A</t>
   </si>
   <si>
-    <t>I try to find a position that is intermediate between his and mine.</t>
+    <t>I try to find a position that is intermediate between theirs and mine.</t>
   </si>
   <si>
     <t>Cerco di trovare una posizione intermedia tra la mia e quella dell'altro.</t>
@@ -380,7 +383,7 @@
     <t>QUESTION_24_A</t>
   </si>
   <si>
-    <t>If the other's position seems very important to him, I would try to meet his wishes.</t>
+    <t>If the other's position seems very important to them, I would try to meet their wishes.</t>
   </si>
   <si>
     <t>Cerco di soddisfare i desideri degli altri quando sono importanti per loro.</t>
@@ -389,13 +392,16 @@
     <t>QUESTION_24_B</t>
   </si>
   <si>
-    <t>I try to get him to settle for a compromise solution.</t>
+    <t>I try to get others to settle for a compromise solution.</t>
   </si>
   <si>
     <t>Cerco di portare l'altra persona a raggiungere un compromesso.</t>
   </si>
   <si>
     <t>QUESTION_25_A</t>
+  </si>
+  <si>
+    <t>I try to show others the logic and benefits of my position.</t>
   </si>
   <si>
     <t>QUESTION_25_B</t>
@@ -1035,7 +1041,7 @@
         <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>65</v>
@@ -1043,7 +1049,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>46</v>
@@ -1054,10 +1060,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>39</v>
@@ -1065,120 +1071,120 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>77</v>
@@ -1186,18 +1192,18 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>67</v>
@@ -1208,18 +1214,18 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>61</v>
@@ -1230,7 +1236,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>92</v>
@@ -1241,7 +1247,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>16</v>
@@ -1252,18 +1258,18 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>67</v>
@@ -1274,7 +1280,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>49</v>
@@ -1285,7 +1291,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>84</v>
@@ -1296,13 +1302,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62">
@@ -1421,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1445,321 +1451,321 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32">
